--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -575,7 +575,7 @@
         <v>45957.41951388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45957.42287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45153</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>46058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45404</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45440</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45938.62832175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45677.66832175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>46031.35736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>46049.43936342592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>46045</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44505.46231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45589.39483796297</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45295.51502314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45800.58765046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45891.61175925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>45891.61375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>45895.61741898148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>45177</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>45758.33842592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44663</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45194.3671875</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45926.59086805556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45926.42373842592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45938.58262731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45933.46856481482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>45883</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44965</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44958</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>46043.47832175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45617.38313657408</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45541</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>46058.41995370371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44505.57928240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44865.77954861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44829.71965277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44774.70063657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44460</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44505.57767361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44341.60780092593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44501.61454861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44271</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44278.63457175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44705</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44515</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44421</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44306.37357638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44760.79641203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44432.72325231481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44873.65104166666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44306.39076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44474.65907407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44247</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44512.376875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44876</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44635.50788194445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44596</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44595.69634259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44501.48219907407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44519.46857638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44595</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44446.38486111111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44383.56744212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44861</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44887.58847222223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44739.83524305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44817</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44509</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44854.60716435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44875.32665509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44523.44119212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44714</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44518.5616087963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44481.44684027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44635.71787037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44603</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44321</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44817.4978125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44799.29469907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44427.35351851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44829</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44672</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>45022.49149305555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45488.38681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>45615.43756944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44510.63287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45602.69391203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45763.49574074074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45510.60306712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44656.57594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>44846.62366898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45523.56701388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44988</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44988</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45191.66645833333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44553</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>45671.31266203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44845</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45281.46988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45212</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45092.3786574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45540.71457175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45240.44027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45540</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45191</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45771.41731481482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44988</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44764.71993055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45611.38907407408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45693.55771990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45665.4825</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45365.42304398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>44994.71511574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45741.36755787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45701.63361111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45544.60001157408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44477</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45191.64744212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45638.78225694445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45566</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45614.40765046296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45798.5110300926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45799.56048611111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45799.56586805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45799.57369212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45754.64091435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44988</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44988</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45800.66126157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>45169.66825231481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45884.63460648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44744</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45887.54204861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>45800.7003125</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45126.63739583334</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45800.57034722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45800.58903935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45176.71189814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45800.53510416667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45800.35587962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45800.57782407408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45884.63819444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45884.64185185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45740.48563657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45800.58108796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45805</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45162</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45162</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>45162</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>45805.50863425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45805.50974537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45649</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45208</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45888.6171875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45889.40511574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45562.34226851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45889.60896990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45532</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>45730.45319444445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45888.44660879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45810</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>45562.36814814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45596.6178125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45649.46215277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45891.61541666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45825.92290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45769.74543981482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45589.3999537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44336</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45894.748125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45896.5346412037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45819.42824074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45818.59716435185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45567.57664351852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45899.61452546297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45899.56299768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45260</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45898</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45898.56283564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45819.52945601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45615.64972222222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45819.53034722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45819.36444444444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45615.43480324074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44342</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45819.44342592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44949</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44813</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45726.67984953704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45226.33118055556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45476.38328703704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45173.59473379629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45825.60623842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45480.41858796297</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45251.43935185186</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44797.63581018519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45825.58762731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45825.58403935185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45909.54861111111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45910.49741898148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45911.48361111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44316.61788194445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45824.60252314815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45910.45524305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45825.92494212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45825.92075231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45905.50623842593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45827.35971064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45303.57997685186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44582</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45917.63239583333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45730.45170138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45240</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45916.6016087963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44804.74767361111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45548</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45279.47818287037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45919.3984837963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45919.37730324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45922.4216087963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44988</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45833.5490162037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45832.69885416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44799</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45832.63834490741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45831.75673611111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44784.46349537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45925.44876157407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45925.36886574074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45926.43328703703</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45252.47675925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45926.59225694444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45929.71905092592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>45926.58954861111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45540.56363425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45240.604375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45929.48452546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45929.48710648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45926.4384375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44894.66045138889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45926.41520833333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45930.55521990741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45834.37255787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45930.2187962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45931.64719907408</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45302</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>45930.23103009259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45930.60548611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44452.65006944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45930.62028935185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45931.71005787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45839.62800925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45839</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45839</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45932.66321759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45468.50820601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45933.56163194445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>45933.57059027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45933.42680555556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>45932.66636574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45933.43212962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45933.56688657407</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45936.42877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45840.36614583333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45936.48322916667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45467.40458333334</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45936.39462962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45841</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45937.61553240741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45936.77966435185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44887</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44236</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44319.48326388889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44501.58199074074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>45938.92873842592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>45939.23872685185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44549.87050925926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>45701.63517361111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>45938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45161.53357638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45121.54181712963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>45252.42072916667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45769.74990740741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>45937.63600694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>45938.68569444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>45938.57288194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>45390.41961805556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45943.34716435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45845.64947916667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45252.53457175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45706.36291666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45660.41813657407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45670</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45762.55353009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45945.69444444445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>45842.37846064815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45944.66112268518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45930.60534722222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45930.60773148148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45246.5606712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45945.52273148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45478.31907407408</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45946</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44335</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>45933.4669212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45946</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45120.30417824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45232</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45849.41206018518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45662.74996527778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45938.68986111111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45855.52385416667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45665.45438657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45938.63042824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45757.36209490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45203</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45863.493125</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45866.56145833333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45866.47849537037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45797.6044675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45867.47538194444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45532.61126157407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45868.70127314814</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45211.58351851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44236</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>45870.43672453704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45873.50310185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45957.4237037037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45957.42465277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45957.42613425926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44964.58362268518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45873.64081018518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45873.64255787037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45070.60813657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45873.43695601852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45205.53430555556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45636.29079861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45087.9609837963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45530.57136574074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45512.42832175926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45089</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45460.6910300926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45153.58384259259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45757.42239583333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45261</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44918</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45576.4566087963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45271.42324074074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44918</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45245</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45883.49430555556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45404.40354166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45883.49261574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45740.57578703704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>45883.48733796296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45883.48945601852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45883.64783564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45069</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45666.53684027777</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45971.71429398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45971.3704050926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45755.47873842593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45968.34590277778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45883.64231481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45883.485</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45883.63326388889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45415</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44994</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44994.62415509259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>45972.58767361111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45971.79834490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45414.41319444445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45649.75841435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45800.46928240741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44915.48208333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45260.50872685185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45343.43699074074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45551.44383101852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45975</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45451.93958333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45330</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45887.54144675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45884.40424768518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45977.45782407407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45552.37234953704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45978.36744212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45730.44833333333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45730.4502662037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45096</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45979.65626157408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45261.34476851852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45981.32533564815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45293</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45293.50021990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45204.49018518518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45983.29730324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45984.44152777778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45984.44215277778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45984.44289351852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>45327.61053240741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>46024.68712962963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45981.94925925926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45981.95412037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45981.95112268518</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45985.30828703703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44915.47952546296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>46021</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>46021</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45986.41121527777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45757.37238425926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45321</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45986.6946875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45268.51590277778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>46030.63916666667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>46030.64684027778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>46031.3815625</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>46030.54699074074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>46031.60224537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45153.57439814815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>46030.42943287037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>46031.72833333333</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45453.42105324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>46031.7299537037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>46031.6131712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>46030.87659722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>46031.72472222222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>46034.64289351852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45992.58516203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45992.586875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45992.53359953704</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>46035.72614583333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>46034.57221064815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45595.37880787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>46035.72274305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>46034.42168981482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>46034.60353009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45992.38607638889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>46035.67670138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45196.31804398148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>46034.39454861111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>46035.65304398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>46035.64958333333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>46035.65846064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>46035.68834490741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>46035.69458333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>45288.41835648148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44797.63806712963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>45645.48365740741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>46036.36267361111</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>46037.6203587963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45226.34331018518</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45747.38331018519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>46036.45912037037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45740.48634259259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45701.63686342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>46037.71626157407</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>46036.53622685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45446.54258101852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>46036.38805555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>46036.39043981482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>46037.60197916667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>46037.73811342593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44544.38899305555</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>46036.51623842592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>46036.55289351852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>46036.46646990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>46036.55474537037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>44988</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>46036.56502314815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>46037.73251157408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>45209.25542824074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>46041.50125</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45999.65306712963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45709.33609953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45159.62744212963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45177</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44949.60355324074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>46038.39768518518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>46038.40582175926</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44273.695625</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45996.60818287037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>46038.58991898148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>46043.573125</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45103</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>46000.79238425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>46043.37753472223</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>46000.7947337963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>46000.7984375</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45984.44184027778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44658</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>46000.7875462963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>46043.34113425926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>46042.95703703703</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45986.96275462963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>45722.67835648148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45722.68167824074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>46042.60207175926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>45740.65372685185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>46043.67476851852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45617.51553240741</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>46042.58122685185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45537.61835648148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>46042.95599537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>46043.583125</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>46042.72135416666</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45999.86381944444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>45999.86414351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>46043.49123842592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>46042.67555555556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>46043.70579861111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>46045.69010416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>46045.765625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>46045.8167824074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45666.54069444445</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>46045.553125</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>46044.60393518519</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>46000.79706018518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>46029.35219907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>46045.45677083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>46020</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>46045.53990740741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44972</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46045.4258449074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45212.40984953703</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>46045.52701388889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>46044.56945601852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>46002.3639699074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>46045.81793981481</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>46020</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>46044.4485300926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45321.48737268519</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45721.54357638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>46044.38246527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>45721.54620370371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45721.54834490741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>46045.69709490741</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>46045.71328703704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>46030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>46030</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>46048.63556712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>46048.6746412037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>46045</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>46045</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>46045</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>46048.87952546297</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>46049.65337962963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>46030</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>46048.57528935185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>46048.65760416666</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>46031</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>46048.5430787037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>46048.62207175926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>45075</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>46046.94458333333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>46045</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>45984.44259259259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>46046.94585648148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>45483.33774305556</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>46045</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>46045</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36143,7 +36143,7 @@
         <v>46037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>46031.41513888889</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>46051.26423611111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>45182.90457175926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>46051.60847222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>46050.70633101852</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>46050.86637731481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>46049.89538194444</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46050.29393518518</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44843.47506944444</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>46050.68386574074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>46050.72439814815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>46050.78326388889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>46049.89357638889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>46021</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>45327</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46052.50662037037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>46052.56048611111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46052.84039351852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>46052.66981481481</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>46052.67086805555</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>46055.61788194445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46052.84206018518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46035</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>46053.2815162037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>46055.57746527778</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>46052.59991898148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>46030</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>46055.61150462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>46052.51173611111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>46055.72790509259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46052.47049768519</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>44810.51233796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>46052.66851851852</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>46055.44311342593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46013.46858796296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45867</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46055.71621527777</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45698.42238425926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46055.48414351852</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>46055.50892361111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>46052.56912037037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45210.60303240741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45265.37725694444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>46057.59275462963</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>46055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44586.71274305556</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>46056.36020833333</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>46037.94458333333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>46037.94694444445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>46056.33554398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>46056.33429398148</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>46034</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>45250</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>46056.36636574074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>46045</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>46056.33731481482</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>46056.4308912037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>46057.63962962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>46044.66690972223</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>46052</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>46057.58040509259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>46057.72797453704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39774,7 +39774,7 @@
         <v>46056.4489699074</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39836,7 +39836,7 @@
         <v>46056.55342592593</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39893,7 +39893,7 @@
         <v>45112</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46052</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>46040.77826388889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         <v>46056.32709490741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>46058.7768287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>46058.35065972222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>46036</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>46058.8635300926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40349,7 +40349,7 @@
         <v>46058.90762731482</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40406,7 +40406,7 @@
         <v>46058.90876157407</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>46058.9102199074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>46021</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>45624.51108796296</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>46035</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46038.5428125</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46038.55922453704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46059.55956018518</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>46043</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>46058.46019675926</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>45274.3437037037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41033,7 +41033,7 @@
         <v>46058.8941087963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>46058.90265046297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>46058.90559027778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41204,7 +41204,7 @@
         <v>46058.91428240741</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41261,7 +41261,7 @@
         <v>46058.91994212963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>46058.92186342592</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41375,7 +41375,7 @@
         <v>46059.56504629629</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41432,7 +41432,7 @@
         <v>46043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41489,7 +41489,7 @@
         <v>46059.67913194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>46058.86868055556</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41603,7 +41603,7 @@
         <v>46058.89818287037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         <v>46059.36969907407</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41717,7 +41717,7 @@
         <v>46058.32569444444</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41774,7 +41774,7 @@
         <v>46058.37984953704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41831,7 +41831,7 @@
         <v>45758.56565972222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>46058.91748842593</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41950,7 +41950,7 @@
         <v>45476.4246875</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44439.57211805556</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45719</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44812</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45191</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45566.66402777778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45376.54525462963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45356.37516203704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45562.27895833334</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45069</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45075</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>44805.569375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45629.60164351852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45099.36172453704</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>44908</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45733.369375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>45240</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43006,7 +43006,7 @@
         <v>45639.36412037037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>45621</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43120,7 +43120,7 @@
         <v>45320.39416666667</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43177,7 +43177,7 @@
         <v>45455.35325231482</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43239,7 +43239,7 @@
         <v>44347</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45583</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45374.42484953703</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>44854</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45205.57335648148</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45721.54731481482</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45188.43148148148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43658,7 +43658,7 @@
         <v>45649</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43715,7 +43715,7 @@
         <v>45615.64052083333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         <v>45483.33927083333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43829,7 +43829,7 @@
         <v>45226</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>44818.57881944445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45477.34099537037</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>44988</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44057,7 +44057,7 @@
         <v>44875.62975694444</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>45112</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44796</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>45545</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44295,7 +44295,7 @@
         <v>45070.28346064815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>45705</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>45254.65175925926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44956</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>45300</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>45282.39997685186</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44272.37886574074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>45499.41650462963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>45602.36033564815</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>45602.4396875</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44901</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45252</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44989,7 +44989,7 @@
         <v>45082.5808912037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45046,7 +45046,7 @@
         <v>45673</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45103,7 +45103,7 @@
         <v>45754.64225694445</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>45667.64702546296</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>45668.41842592593</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>45187</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44914</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45519.61461805556</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45257.56163194445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45532,7 +45532,7 @@
         <v>45688.52892361111</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         <v>45094</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44847.49043981481</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>45049.58680555555</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45264.61790509259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>45238.60041666667</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45709</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45197.63974537037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>45217.65972222222</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44564.57825231482</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44955</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46164,7 +46164,7 @@
         <v>45600.62952546297</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46221,7 +46221,7 @@
         <v>45596.42138888889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46278,7 +46278,7 @@
         <v>45706</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46340,7 +46340,7 @@
         <v>44551.36337962963</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>45636.45076388889</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45561.35392361111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45063.45789351852</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>45602.36324074074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>45748.62546296296</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>45602.68607638889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>45636.29861111111</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>45085.64475694444</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>45756.34729166667</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>45701.65290509259</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45700.63459490741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47039,7 +47039,7 @@
         <v>44379</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47096,7 +47096,7 @@
         <v>44855</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47158,7 +47158,7 @@
         <v>44756.68119212963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47215,7 +47215,7 @@
         <v>45022</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>45463</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45747.38072916667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45541</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45541</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47510,7 +47510,7 @@
         <v>45303.60203703704</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>45558.45087962963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45722.68009259259</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47681,7 +47681,7 @@
         <v>44587</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>45327.6296412037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>44379.5612962963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>44603</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45769.51464120371</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>45728</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>45404</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45590.66225694444</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48147,7 +48147,7 @@
         <v>45666.39425925926</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48204,7 +48204,7 @@
         <v>45672.65636574074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48261,7 +48261,7 @@
         <v>45679.6203125</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45211.58746527778</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>44566.65258101852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45153.56925925926</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>45777.34825231481</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>45779.42856481481</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45779.4387037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45783.6865625</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48779,7 +48779,7 @@
         <v>45540.71594907407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>45205.59666666666</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48893,7 +48893,7 @@
         <v>45622.41663194444</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45679.55258101852</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45555.50784722222</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>44531.86046296296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45240.42166666667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45178</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49297,7 +49297,7 @@
         <v>45520.41766203703</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49354,7 +49354,7 @@
         <v>45786.65537037037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45525.51678240741</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49478,7 +49478,7 @@
         <v>45404.42548611111</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45188.63613425926</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45792.47788194445</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45475.71920138889</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45673</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45763.66766203703</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45278</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45418.5744675926</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -575,7 +575,7 @@
         <v>45957.41951388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45957.42287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45153</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>46058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45404</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45721</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45440</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45938.62832175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45677.66832175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>46031.35736111111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>46049.43936342592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>46045</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44505.46231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45589.39483796297</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45295.51502314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45800.58765046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45891.61175925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>45891.61375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>45895.61741898148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>45177</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>45758.33842592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>44663</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45194.3671875</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45926.59086805556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45926.42373842592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45938.58262731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45933.46856481482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>45883</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44965</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44958</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>46043.47832175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45617.38313657408</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45541</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>46058.41995370371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44505.57928240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44865.77954861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44829.71965277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44774.70063657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44460</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44505.57767361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44341.60780092593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44501.61454861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44271</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44278.63457175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44705</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44515</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44421</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44306.37357638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44760.79641203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44432.72325231481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44873.65104166666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44306.39076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44474.65907407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44247</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44512.376875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44876</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44635.50788194445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44596</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44595.69634259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44501.48219907407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44519.46857638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44595</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44446.38486111111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44383.56744212963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44861</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44887.58847222223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44739.83524305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44817</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44509</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44854.60716435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44875.32665509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44523.44119212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44714</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44518.5616087963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44481.44684027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44635.71787037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44603</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44321</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44817.4978125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44799.29469907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44427.35351851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44829</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44672</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>45022.49149305555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45488.38681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>45615.43756944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44510.63287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45602.69391203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45763.49574074074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45510.60306712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44656.57594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>44846.62366898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45523.56701388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44988</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44988</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45191.66645833333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44553</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>45671.31266203704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44845</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45281.46988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45212</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45092.3786574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45540.71457175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45240.44027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45540</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45191</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45771.41731481482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44988</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44764.71993055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45611.38907407408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45693.55771990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45665.4825</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45365.42304398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>44994.71511574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45741.36755787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45701.63361111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45544.60001157408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44477</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45191.64744212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45638.78225694445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45566</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45614.40765046296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45798.5110300926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45799.56048611111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45799.56586805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45799.57369212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45754.64091435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44988</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44988</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45800.66126157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>45169.66825231481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45884.63460648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44744</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45887.54204861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>45800.7003125</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45126.63739583334</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45800.57034722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45800.58903935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45176.71189814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45800.53510416667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45800.35587962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45800.57782407408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45884.63819444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45884.64185185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45740.48563657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45800.58108796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45805</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45162</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45162</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>45162</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>45805.50863425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45805.50974537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45649</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45208</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45888.6171875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45889.40511574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45562.34226851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45889.60896990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45532</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>45730.45319444445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>45888.44660879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45810</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>45562.36814814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45596.6178125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45649.46215277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45891.61541666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45825.92290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45769.74543981482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45589.3999537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44336</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45894.748125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45896.5346412037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45819.42824074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45818.59716435185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45567.57664351852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45899.61452546297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45899.56299768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45260</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45898</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45898.56283564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45819.52945601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45615.64972222222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45819.53034722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45819.36444444444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45615.43480324074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44342</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45819.44342592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44949</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44813</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45726.67984953704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45226.33118055556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45476.38328703704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45173.59473379629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45825.60623842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45480.41858796297</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45251.43935185186</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44797.63581018519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45825.58762731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45825.58403935185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45909.54861111111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45910.49741898148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45911.48361111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44316.61788194445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45824.60252314815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45910.45524305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45825.92494212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45825.92075231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45905.50623842593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45827.35971064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45303.57997685186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44582</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45917.63239583333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45730.45170138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45240</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45916.6016087963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44804.74767361111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45548</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45279.47818287037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45919.3984837963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45919.37730324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45922.4216087963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44988</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45833.5490162037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45832.69885416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44799</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45832.63834490741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45831.75673611111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44784.46349537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45925.44876157407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45925.36886574074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45926.43328703703</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45252.47675925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45926.59225694444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45929.71905092592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>45926.58954861111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45540.56363425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45240.604375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45929.48452546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45929.48710648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45926.4384375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>44894.66045138889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45926.41520833333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45930.55521990741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45834.37255787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45930.2187962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45931.64719907408</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45302</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>45930.23103009259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45930.60548611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44452.65006944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45930.62028935185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45931.71005787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45839.62800925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45839</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45839</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45932.66321759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45468.50820601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45933.56163194445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>45933.57059027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45933.42680555556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>45932.66636574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45933.43212962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45933.56688657407</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45936.42877314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45840.36614583333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45936.48322916667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45467.40458333334</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45936.39462962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45841</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45937.61553240741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45936.77966435185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44887</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44236</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44319.48326388889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44501.58199074074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>45938.92873842592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>45939.23872685185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44549.87050925926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>45701.63517361111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>45938</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45161.53357638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45121.54181712963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>45252.42072916667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45769.74990740741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>45937.63600694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>45938.68569444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>45938.57288194444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>45390.41961805556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45943.34716435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45845.64947916667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45252.53457175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45706.36291666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45660.41813657407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45670</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45762.55353009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45945.69444444445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>45842.37846064815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45944.66112268518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45930.60534722222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45930.60773148148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45246.5606712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45945.52273148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45478.31907407408</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45946</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>44335</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>45933.4669212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45946</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45120.30417824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45232</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45849.41206018518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45662.74996527778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45938.68986111111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45855.52385416667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45665.45438657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45938.63042824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45757.36209490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45203</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45863.493125</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45866.56145833333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45866.47849537037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45797.6044675926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>45867.47538194444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45532.61126157407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45868.70127314814</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45211.58351851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44236</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>45870.43672453704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45873.50310185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45957.4237037037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45957.42465277778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45957.42613425926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44964.58362268518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45873.64081018518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45873.64255787037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45070.60813657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45873.43695601852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45205.53430555556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45636.29079861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45087.9609837963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45530.57136574074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45512.42832175926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45089</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45460.6910300926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45153.58384259259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45757.42239583333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45261</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44918</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45576.4566087963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45271.42324074074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44918</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45245</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45883.49430555556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45404.40354166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45883.49261574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45740.57578703704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>45883.48733796296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45883.48945601852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45883.64783564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45069</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45666.53684027777</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45971.71429398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45971.3704050926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45755.47873842593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45968.34590277778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45883.64231481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45883.485</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45883.63326388889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45415</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44994</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>44994.62415509259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>45972.58767361111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45971.79834490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45414.41319444445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45649.75841435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45800.46928240741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44915.48208333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45260.50872685185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45343.43699074074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45551.44383101852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45975</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45451.93958333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45330</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45887.54144675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45884.40424768518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45977.45782407407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45552.37234953704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45978.36744212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45730.44833333333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45730.4502662037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45096</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45979.65626157408</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45261.34476851852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45981.32533564815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45293</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45293.50021990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45204.49018518518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45983.29730324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45984.44152777778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45984.44215277778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45984.44289351852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>45327.61053240741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>46024.68712962963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45981.94925925926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45981.95412037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45981.95112268518</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45985.30828703703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44915.47952546296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>46021</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>46021</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45986.41121527777</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45757.37238425926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45321</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45986.6946875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45268.51590277778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>46030.63916666667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>46030.64684027778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>46031.3815625</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>46030.54699074074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>46031.60224537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45153.57439814815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>46030.42943287037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>46031.72833333333</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45453.42105324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>46031.7299537037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>46031.6131712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>46030.87659722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>46031.72472222222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>46034.64289351852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45992.58516203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45992.586875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45992.53359953704</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>46035.72614583333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>46034.57221064815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45595.37880787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>46035.72274305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>46034.42168981482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>46034.60353009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45992.38607638889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>46035.67670138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45196.31804398148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>46034.39454861111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>46035.65304398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>46035.64958333333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>46035.65846064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>46035.68834490741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>46035.69458333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>45288.41835648148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44797.63806712963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>45645.48365740741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>46036.36267361111</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>46037.6203587963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45226.34331018518</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45747.38331018519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>46036.45912037037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45740.48634259259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45701.63686342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>46037.71626157407</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>46036.53622685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45446.54258101852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>46036.38805555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>46036.39043981482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>46037.60197916667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>46037.73811342593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>44544.38899305555</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>46036.51623842592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>46036.55289351852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>46036.46646990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>46036.55474537037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>44988</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>46036.56502314815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>46037.73251157408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>45209.25542824074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>46041.50125</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45999.65306712963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45709.33609953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45159.62744212963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45177</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44949.60355324074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>46038.39768518518</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>46038.40582175926</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44273.695625</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45996.60818287037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>46038.58991898148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>46043.573125</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45103</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>46000.79238425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>46043.37753472223</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>46000.7947337963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>46000.7984375</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45984.44184027778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44658</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>46000.7875462963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>46043.34113425926</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>46042.95703703703</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45986.96275462963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>45722.67835648148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45722.68167824074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>46042.60207175926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>45740.65372685185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>46043.67476851852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45617.51553240741</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>46042.58122685185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45537.61835648148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>46042.95599537037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>46043.583125</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32876,7 +32876,7 @@
         <v>46042.72135416666</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>45999.86381944444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>45999.86414351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>46043.49123842592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33104,7 +33104,7 @@
         <v>46042.67555555556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33161,7 +33161,7 @@
         <v>46043.70579861111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>46045.69010416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>46045.765625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>46045.8167824074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45666.54069444445</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>46045.553125</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>46044.60393518519</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>46000.79706018518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>46029.35219907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>46045.45677083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>46020</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>46045.53990740741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44972</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>46045.4258449074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45212.40984953703</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>46045.52701388889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>46044.56945601852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>46002.3639699074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>46045.81793981481</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>46020</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>46044.4485300926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45321.48737268519</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45721.54357638889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34502,7 +34502,7 @@
         <v>46044.38246527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34559,7 +34559,7 @@
         <v>45721.54620370371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45721.54834490741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>46045.69709490741</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>46045.71328703704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>46030</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>46030</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>46048.63556712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>46048.6746412037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>46045</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>46045</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>46045</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>46048.87952546297</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>46049.65337962963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35320,7 +35320,7 @@
         <v>46030</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>46048.57528935185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>46048.65760416666</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>46031</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>46048.5430787037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>46048.62207175926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>45075</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>46046.94458333333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>46045</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>45984.44259259259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>46046.94585648148</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>45483.33774305556</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>46045</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>46045</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36143,7 +36143,7 @@
         <v>46037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>46031.41513888889</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>46051.26423611111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>45182.90457175926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>46051.60847222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>46050.70633101852</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>46050.86637731481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>46049.89538194444</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46050.29393518518</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44843.47506944444</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>46050.68386574074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>46050.72439814815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>46050.78326388889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36889,7 +36889,7 @@
         <v>46049.89357638889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>46021</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>45327</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46052.50662037037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>46052.56048611111</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46052.84039351852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>46052.66981481481</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>46052.67086805555</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>46055.61788194445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46052.84206018518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46035</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>46053.2815162037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>46055.57746527778</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>46052.59991898148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>46030</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>46055.61150462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>46052.51173611111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>46055.72790509259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46052.47049768519</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>44810.51233796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>46052.66851851852</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>46055.44311342593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46013.46858796296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45867</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46055.71621527777</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>45698.42238425926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46055.48414351852</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>46055.50892361111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>46052.56912037037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45210.60303240741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45265.37725694444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>46057.59275462963</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>46055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44586.71274305556</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>46056.36020833333</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>46037.94458333333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>46037.94694444445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>46056.33554398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>46056.33429398148</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>46034</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>45250</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>46056.36636574074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>46045</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>46056.33731481482</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>46056.4308912037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>46057.63962962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>46044.66690972223</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>46052</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>46057.58040509259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>46057.72797453704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39774,7 +39774,7 @@
         <v>46056.4489699074</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39836,7 +39836,7 @@
         <v>46056.55342592593</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39893,7 +39893,7 @@
         <v>45112</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46052</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>46040.77826388889</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         <v>46056.32709490741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>46058.7768287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>46058.35065972222</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>46036</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>46058.8635300926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40349,7 +40349,7 @@
         <v>46058.90762731482</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40406,7 +40406,7 @@
         <v>46058.90876157407</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>46058.9102199074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>46021</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>45624.51108796296</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>46035</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46038.5428125</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46038.55922453704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46059.55956018518</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>46043</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>46058.46019675926</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40976,7 +40976,7 @@
         <v>45274.3437037037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41033,7 +41033,7 @@
         <v>46058.8941087963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>46058.90265046297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>46058.90559027778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41204,7 +41204,7 @@
         <v>46058.91428240741</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41261,7 +41261,7 @@
         <v>46058.91994212963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>46058.92186342592</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41375,7 +41375,7 @@
         <v>46059.56504629629</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41432,7 +41432,7 @@
         <v>46043</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41489,7 +41489,7 @@
         <v>46059.67913194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>46058.86868055556</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41603,7 +41603,7 @@
         <v>46058.89818287037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         <v>46059.36969907407</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41717,7 +41717,7 @@
         <v>46058.32569444444</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41774,7 +41774,7 @@
         <v>46058.37984953704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41831,7 +41831,7 @@
         <v>45758.56565972222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>46058.91748842593</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41950,7 +41950,7 @@
         <v>45476.4246875</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44439.57211805556</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45719</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44812</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45191</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45566.66402777778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45376.54525462963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45356.37516203704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45562.27895833334</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45069</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45075</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>44805.569375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45629.60164351852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45099.36172453704</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>44908</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45733.369375</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>45240</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43006,7 +43006,7 @@
         <v>45639.36412037037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43063,7 +43063,7 @@
         <v>45621</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43120,7 +43120,7 @@
         <v>45320.39416666667</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43177,7 +43177,7 @@
         <v>45455.35325231482</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43239,7 +43239,7 @@
         <v>44347</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45583</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45374.42484953703</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>44854</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45205.57335648148</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45721.54731481482</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45188.43148148148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43658,7 +43658,7 @@
         <v>45649</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43715,7 +43715,7 @@
         <v>45615.64052083333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         <v>45483.33927083333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43829,7 +43829,7 @@
         <v>45226</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>44818.57881944445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45477.34099537037</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>44988</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44057,7 +44057,7 @@
         <v>44875.62975694444</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>45112</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44796</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>45545</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44295,7 +44295,7 @@
         <v>45070.28346064815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>45705</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>45254.65175925926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44956</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>45300</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>45282.39997685186</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44272.37886574074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>45499.41650462963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44756,7 +44756,7 @@
         <v>45602.36033564815</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44813,7 +44813,7 @@
         <v>45602.4396875</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44870,7 +44870,7 @@
         <v>44901</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44927,7 +44927,7 @@
         <v>45252</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44989,7 +44989,7 @@
         <v>45082.5808912037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45046,7 +45046,7 @@
         <v>45673</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45103,7 +45103,7 @@
         <v>45754.64225694445</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>45667.64702546296</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>45668.41842592593</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>45187</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44914</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45519.61461805556</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45257.56163194445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45532,7 +45532,7 @@
         <v>45688.52892361111</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45589,7 +45589,7 @@
         <v>45094</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44847.49043981481</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>45049.58680555555</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45264.61790509259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>45238.60041666667</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45709</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>45197.63974537037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>45217.65972222222</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44564.57825231482</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44955</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46164,7 +46164,7 @@
         <v>45600.62952546297</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46221,7 +46221,7 @@
         <v>45596.42138888889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46278,7 +46278,7 @@
         <v>45706</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46340,7 +46340,7 @@
         <v>44551.36337962963</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46402,7 +46402,7 @@
         <v>45636.45076388889</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         <v>45561.35392361111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46516,7 +46516,7 @@
         <v>45063.45789351852</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>45602.36324074074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>45748.62546296296</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>45602.68607638889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>45636.29861111111</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>45085.64475694444</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>45756.34729166667</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>45701.65290509259</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>45700.63459490741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47039,7 +47039,7 @@
         <v>44379</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47096,7 +47096,7 @@
         <v>44855</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47158,7 +47158,7 @@
         <v>44756.68119212963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47215,7 +47215,7 @@
         <v>45022</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>45463</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45747.38072916667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45541</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45541</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47510,7 +47510,7 @@
         <v>45303.60203703704</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>45558.45087962963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45722.68009259259</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47681,7 +47681,7 @@
         <v>44587</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>45327.6296412037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>44379.5612962963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>44603</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45769.51464120371</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>45728</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>45404</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45590.66225694444</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48147,7 +48147,7 @@
         <v>45666.39425925926</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48204,7 +48204,7 @@
         <v>45672.65636574074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48261,7 +48261,7 @@
         <v>45679.6203125</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48318,7 +48318,7 @@
         <v>45211.58746527778</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48375,7 +48375,7 @@
         <v>44566.65258101852</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48432,7 +48432,7 @@
         <v>45153.56925925926</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48489,7 +48489,7 @@
         <v>45022</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>45777.34825231481</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>45779.42856481481</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45779.4387037037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45783.6865625</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48779,7 +48779,7 @@
         <v>45540.71594907407</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>45205.59666666666</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48893,7 +48893,7 @@
         <v>45622.41663194444</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48950,7 +48950,7 @@
         <v>45679.55258101852</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49007,7 +49007,7 @@
         <v>45555.50784722222</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49121,7 +49121,7 @@
         <v>44531.86046296296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45240.42166666667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49235,7 +49235,7 @@
         <v>45178</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49297,7 +49297,7 @@
         <v>45520.41766203703</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49354,7 +49354,7 @@
         <v>45786.65537037037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45525.51678240741</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49478,7 +49478,7 @@
         <v>45404.42548611111</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>45188.63613425926</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>45792.47788194445</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>45475.71920138889</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49706,7 +49706,7 @@
         <v>45673</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>45763.66766203703</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>45278</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49877,7 +49877,7 @@
         <v>45418.5744675926</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -575,7 +575,7 @@
         <v>45957.41951388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45957.42287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45153</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>46058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45404</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45440</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45938.62832175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45677.66832175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>46049.43936342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>46045</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>46031.35736111111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45721</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44505.46231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45589.39483796297</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45295.51502314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45891.61175925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45891.61375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>45895.61741898148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45177</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45758.33842592593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45194.3671875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45926.59086805556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45926.42373842592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45938.58262731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45933.46856481482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44965</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44958</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>46043.47832175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>45617.38313657408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>45541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>46058.41995370371</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>45800.58765046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44505.57928240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44865.77954861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44829.71965277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44774.70063657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44460</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44505.57767361111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44341.60780092593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44501.61454861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44271</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44278.63457175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44705</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44515</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44421</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44306.37357638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44432.72325231481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44760.79641203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44873.65104166666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44306.39076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44474.65907407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44512.376875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44876</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44635.50788194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44596</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44595.69634259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44501.48219907407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44519.46857638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44446.38486111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44383.56744212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44861</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44739.83524305555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44887.58847222223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44817</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44854.60716435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44509</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44875.32665509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44523.44119212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44714</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44518.5616087963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44299</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44481.44684027778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44635.71787037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44321</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44427.35351851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44817.4978125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44799.29469907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>44829</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>45022.49149305555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>45602.69391203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45488.38681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>45615.43756944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44510.63287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45510.60306712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44846.62366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45763.49574074074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44656.57594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>45523.56701388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44988</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44988</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45191.66645833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44553</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45671.31266203704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44845</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>45092.3786574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45281.46988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45212</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45540.71457175926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45240.44027777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44988</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45540</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44764.71993055556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45191</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45693.55771990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45611.38907407408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45665.4825</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45365.42304398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>44994.71511574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45741.36755787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45701.63361111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45544.60001157408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45191.64744212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45638.78225694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44477</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45649</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45754.64091435185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45169.66825231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44988</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44988</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44744</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45771.41731481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45740.48563657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45162</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45649</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45730.45319444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45208</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45819.42824074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45589.3999537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45818.59716435185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44336</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45566</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45649.46215277778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45884.63460648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45887.54204861111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45819.52945601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45819.53034722222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45176.71189814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45800.53510416667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45819.36444444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45884.63819444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45884.64185185185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45567.57664351852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45819.44342592593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45260</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45615.64972222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45615.43480324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45888.6171875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>44342</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45889.40511574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45825.60623842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45825.58762731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45889.60896990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45825.58403935185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45888.44660879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45824.60252314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44813</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45226.33118055556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45596.6178125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45825.92494212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45825.92075231481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45827.35971064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45891.61541666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45825.92290509259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45476.38328703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45769.74543981482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45480.41858796297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45251.43935185186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44797.63581018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45894.748125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44316.61788194445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45896.5346412037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45833.5490162037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45832.69885416667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45832.63834490741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45899.61452546297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45899.56299768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45831.75673611111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44784.46349537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45898</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45898.56283564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45303.57997685186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44582</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45730.45170138889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45240</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44804.74767361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45548</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45834.37255787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45279.47818287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45726.67984953704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45839.62800925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45839</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44988</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45173.59473379629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45112</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45840.36614583333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45841</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45909.54861111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45910.49741898148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45911.48361111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45910.45524305556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45845.64947916667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45252.47675925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45762.55353009259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45905.50623842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45842.37846064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45540.56363425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45240.604375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>44894.66045138889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45917.63239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45849.41206018518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45302</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44452.65006944445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45916.6016087963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>45855.52385416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>45468.50820601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45919.3984837963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>45919.37730324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45665.45438657407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45922.4216087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45863.493125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45467.40458333334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>45866.56145833333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45866.47849537037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>45925.44876157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44887</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44319.48326388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44501.58199074074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45797.6044675926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45925.36886574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45867.47538194444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44549.87050925926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45701.63517361111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45161.53357638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45121.54181712963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45868.70127314814</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45926.43328703703</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44784</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45252.42072916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45769.74990740741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45926.59225694444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45929.71905092592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45926.58954861111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45870.43672453704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45929.48452546296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45929.48710648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45926.4384375</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45873.50310185185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45390.41961805556</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45926.41520833333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45252.53457175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45706.36291666667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45660.41813657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45930.55521990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>45930.2187962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>45670</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>45931.64719907408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45873.64081018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>45873.64255787037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45873.43695601852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45930.23103009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45930.60548611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45930.62028935185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45931.71005787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45246.5606712963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45932.66321759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45478.31907407408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45933.56163194445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45933.57059027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44335</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45933.42680555556</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45120.30417824074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45932.66636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45933.43212962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45232</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45933.56688657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45662.74996527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45936</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>45936.42877314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>45883.49430555556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45883.49261574074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45740.57578703704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45936.48322916667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45936.39462962963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45883.48733796296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>45883.48945601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45883.64783564815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45937.61553240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45883.64231481482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45883.485</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>45883.63326388889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>45757.36209490741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45936.77966435185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45800.46928240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45203</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45938.92873842592</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45939.23872685185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45938</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44586</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45937.63600694444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45938.68569444444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>45938.57288194444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45532.61126157407</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45943.34716435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45211.58351851852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45330</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45887.54144675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45945.69444444445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45884.40424768518</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44964.58362268518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45944.66112268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45930.60534722222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45930.60773148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45945.52273148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45070.60813657408</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45205.53430555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45636.29079861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45552.37234953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45087.9609837963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45530.57136574074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45946</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45512.42832175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45933.4669212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45946</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45089</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45460.6910300926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>45153.58384259259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45757.42239583333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45938.68986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45938.63042824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45261</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44918</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45576.4566087963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45271.42324074074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44918</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45245</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45404.40354166667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45666.53684027777</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45957.4237037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>45957.42465277778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45957.42613425926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45755.47873842593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45415</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44994</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44994.62415509259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45414.41319444445</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45649.75841435185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44915.48208333334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45260.50872685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45343.43699074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45551.44383101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45451.93958333333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>45730.44833333333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45730.4502662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45096</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45261.34476851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45293</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45293.50021990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45971.71429398148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45971.3704050926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45204.49018518518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>45968.34590277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45327.61053240741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45972.58767361111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45971.79834490741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>45975</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44915.47952546296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>45757.37238425926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45977.45782407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45321</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45978.36744212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45268.51590277778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45979.65626157408</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45981.32533564815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45153.57439814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45983.29730324074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45984.44152777778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45984.44215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45984.44289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45453.42105324074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45981.94925925926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45981.95412037037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45595.37880787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45981.95112268518</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45985.30828703703</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45196.31804398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45986.41121527777</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45986.6946875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>46030.63916666667</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45288.41835648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>44797.63806712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>45645.48365740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>46030.54699074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45226.34331018518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45747.38331018519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>46031.60224537037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>46030.42943287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45740.48634259259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45701.63686342593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>46031.6131712963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45446.54258101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45992.58516203704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45992.586875</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45992.53359953704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>46035.72614583333</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>46034.57221064815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>44544.38899305555</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>46035.72274305556</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45162</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>46034.42168981482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>46034.60353009259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>45992.38607638889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>46035.67670138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44988</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45209.25542824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>46034.39454861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45709.33609953704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>46035.65304398148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>46035.64958333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>46035.65846064815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>46035.68834490741</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>46035.69458333333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>46036.36267361111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>46037.6203587963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45159.62744212963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>46036.45912037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45177</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>46037.71626157407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>46036.53622685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44949.60355324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>46036.38805555556</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>46036.39043981482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>46037.60197916667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>46037.73811342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>46036.51623842592</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>46036.46646990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>46036.55474537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46036.56502314815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>46037.73251157408</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44273.695625</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>46041.50125</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45999.65306712963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>46038.39768518518</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45103</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>46038.40582175926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44658</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45722.67835648148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45722.68167824074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45740.65372685185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>46038.58991898148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>46043.573125</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45617.51553240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45537.61835648148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>46000.79238425926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>46043.37753472223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>46000.7947337963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>46000.7984375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45984.44184027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>46000.7875462963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>46042.95703703703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45666.54069444445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45986.96275462963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>46042.60207175926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>46043.67476851852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>46042.58122685185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>46042.95599537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44972</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>46043.583125</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>45212.40984953703</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>45999.86381944444</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>45999.86414351852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46042.67555555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46043.70579861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>46045.765625</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>45321.48737268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45721.54357638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45721.54620370371</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31478,7 +31478,7 @@
         <v>45721.54834490741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>46045.8167824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>46045.553125</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>46000.79706018518</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>46045.45677083333</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>46045.53990740741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>46045.4258449074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>46045.52701388889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>46002.3639699074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45075</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>46045.81793981481</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>46044.38246527778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45483.33774305556</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>46045.71328703704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>46048.63556712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>46048.6746412037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>46045</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>46045</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>46045</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>46048.87952546297</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>46049.65337962963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>46048.57528935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>46048.65760416666</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>46048.5430787037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>46046.94458333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>46045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>45984.44259259259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>45182.90457175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>46046.94585648148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>46045</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44843.47506944444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>46045</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>46037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>46051.26423611111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>45327</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>46051.60847222222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>46050.70633101852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46050.86637731481</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>46049.89538194444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>46050.29393518518</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>44810.51233796297</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>46050.68386574074</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>46050.78326388889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>46049.89357638889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>46052.84039351852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45698.42238425926</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>46052.66981481481</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>46052.67086805555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45210.60303240741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>46052.84206018518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>46035</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45265.37725694444</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>46053.2815162037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>46055.57746527778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>46052.59991898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>46055.61150462963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>44586.71274305556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>46055.72790509259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>46052.66851851852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>46055.44311342593</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45250</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>46013.46858796296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45867</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>46055.71621527777</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>46055.48414351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>46055.50892361111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45112</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>46057.59275462963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>46055</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>46056.36020833333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>46037.94458333333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>46037.94694444445</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>46056.33554398148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>46056.33429398148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>46034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>46056.36636574074</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>46045</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>46056.4308912037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>46057.63962962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45624.51108796296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>46052</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>46056.4489699074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>45274.3437037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>46052</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>46040.77826388889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>46056.32709490741</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>46058.7768287037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>46058.35065972222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46036</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>46058.90762731482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>46058.90876157407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>46058.9102199074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>46035</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>46038.5428125</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46038.55922453704</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45758.56565972222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46059.55956018518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>46043</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46058.46019675926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>46058.8941087963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>46058.90265046297</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>46058.90559027778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46059.56504629629</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46043</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>46059.67913194445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>46058.89818287037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45476.4246875</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>46059.36969907407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>46058.32569444444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>46058.37984953704</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>46034.64289351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>46045</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>46058</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>45996.60818287037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>46052.47049768519</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46052.51173611111</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>46020</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46042.72135416666</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>46063.31511574074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>46062.63797453704</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44439.57211805556</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46063.35641203704</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>46063.39244212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46063.25381944444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>46052.56912037037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>46052.50662037037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>46052.56048611111</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>46063.3653587963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>46063.37041666666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>46063.37728009259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>46036.55289351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>46062.49981481482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>46063.4875462963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>46021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>46062.34707175926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>46021</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>46021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46045</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>44812</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46063.34471064815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46021</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46063.72082175926</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>46063.25568287037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46063.30598379629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>46061.96189814815</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45191</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46020</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46048.62207175926</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>46062.5240625</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>46063</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>46058</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>46065.86118055556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>46058</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45566.66402777778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>46057</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>45376.54525462963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>46065.86258101852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>46065.8640625</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46065.85527777778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46065.8584837963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46058</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>46058</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>45075</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40981,7 +40981,7 @@
         <v>46064.45037037037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41038,7 +41038,7 @@
         <v>46057</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41095,7 +41095,7 @@
         <v>46065.72215277778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>46065.865625</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>46064.68269675926</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>45356.37516203704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>45562.27895833334</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>46065.75555555556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>46056</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>45069</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         <v>46069.85539351852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         <v>46069.39135416667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>46066.47238425926</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>46065.69568287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>46066.48733796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41836,7 +41836,7 @@
         <v>45075</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>44805.569375</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41950,7 +41950,7 @@
         <v>46024.68712962963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42007,7 +42007,7 @@
         <v>45629.60164351852</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42064,7 +42064,7 @@
         <v>46056</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42121,7 +42121,7 @@
         <v>46066.48263888889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42178,7 +42178,7 @@
         <v>46043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42235,7 +42235,7 @@
         <v>46066.55061342593</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>46044.4485300926</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42349,7 +42349,7 @@
         <v>46069.36844907407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>46043</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45099.36172453704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>46069.6334375</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44908</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45733.369375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>46058</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>46063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42810,7 +42810,7 @@
         <v>46063</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>46063</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>45240</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42986,7 +42986,7 @@
         <v>46071.52533564815</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>46071.52795138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>46062</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>46065</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45639.36412037037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45621</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>46050</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>46069.93722222222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>46070.49</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>46069.92490740741</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>45320.39416666667</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>46070.68643518518</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>46069.92002314814</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>46069.92164351852</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>46069.93122685186</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>46071.51751157407</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>46070.50712962963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>46069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>46065</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44089,7 +44089,7 @@
         <v>46029.35219907408</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         <v>46065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44203,7 +44203,7 @@
         <v>46070.69155092593</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>46044.56945601852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>45455.35325231482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>46044</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>46069.92771990741</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>46070.27431712963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44347</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>46072.36167824074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>45583</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>46073.58239583333</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>46073.58351851852</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>46031.72472222222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>46072.40773148148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>46030</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>46071.91853009259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>46072.44634259259</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>46044</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>46071.91168981481</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>46073.5859375</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>46073.5934375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>46063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>46073.64684027778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>46072.34410879629</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45564,7 +45564,7 @@
         <v>46072.35738425926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         <v>45374.42484953703</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>46031.3815625</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>46055</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>44854</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>46030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>46031</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45205.57335648148</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>46072.96069444445</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>46073.47606481481</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>46031.72833333333</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>46072.59813657407</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>46030</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>46031.7299537037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>46073.53269675926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>45721.54731481482</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46491,7 +46491,7 @@
         <v>46073.58091435185</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>46072.44950231481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46615,7 +46615,7 @@
         <v>46031.41513888889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
         <v>46030.64684027778</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46729,7 +46729,7 @@
         <v>46072.95856481481</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         <v>46073.40578703704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46848,7 +46848,7 @@
         <v>45188.43148148148</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>46030</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>46030</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47024,7 +47024,7 @@
         <v>45649</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47081,7 +47081,7 @@
         <v>45615.64052083333</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47138,7 +47138,7 @@
         <v>45483.33927083333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>46073.41920138889</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47252,7 +47252,7 @@
         <v>45226</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47309,7 +47309,7 @@
         <v>44818.57881944445</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47366,7 +47366,7 @@
         <v>45477.34099537037</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47423,7 +47423,7 @@
         <v>44988</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44875.62975694444</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>45112</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44796</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>45545</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47718,7 +47718,7 @@
         <v>45070.28346064815</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>45705</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>45254.65175925926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47894,7 +47894,7 @@
         <v>44956</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45300</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>45282.39997685186</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>44272.37886574074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48122,7 +48122,7 @@
         <v>45499.41650462963</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48179,7 +48179,7 @@
         <v>45602.36033564815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48236,7 +48236,7 @@
         <v>45602.4396875</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48293,7 +48293,7 @@
         <v>44901</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48350,7 +48350,7 @@
         <v>45252</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48412,7 +48412,7 @@
         <v>45082.5808912037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48469,7 +48469,7 @@
         <v>45673</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48526,7 +48526,7 @@
         <v>45754.64225694445</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48583,7 +48583,7 @@
         <v>45667.64702546296</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45668.41842592593</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45187</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48779,7 +48779,7 @@
         <v>44914</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>45519.61461805556</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48893,7 +48893,7 @@
         <v>45257.56163194445</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48955,7 +48955,7 @@
         <v>45688.52892361111</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49012,7 +49012,7 @@
         <v>45094</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49074,7 +49074,7 @@
         <v>44847.49043981481</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49131,7 +49131,7 @@
         <v>45049.58680555555</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45264.61790509259</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49245,7 +49245,7 @@
         <v>45238.60041666667</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49302,7 +49302,7 @@
         <v>45709</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49359,7 +49359,7 @@
         <v>45197.63974537037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45217.65972222222</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>44564.57825231482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49530,7 +49530,7 @@
         <v>44955</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49587,7 +49587,7 @@
         <v>45600.62952546297</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49644,7 +49644,7 @@
         <v>45596.42138888889</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49701,7 +49701,7 @@
         <v>45706</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>44551.36337962963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49825,7 +49825,7 @@
         <v>45636.45076388889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49882,7 +49882,7 @@
         <v>45561.35392361111</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49939,7 +49939,7 @@
         <v>45063.45789351852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50001,7 +50001,7 @@
         <v>45602.36324074074</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50058,7 +50058,7 @@
         <v>45748.62546296296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50115,7 +50115,7 @@
         <v>45602.68607638889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50172,7 +50172,7 @@
         <v>45636.29861111111</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         <v>45085.64475694444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50286,7 +50286,7 @@
         <v>45756.34729166667</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50348,7 +50348,7 @@
         <v>45701.65290509259</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50405,7 +50405,7 @@
         <v>45700.63459490741</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>44379</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>44855</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>44756.68119212963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45022</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50695,7 +50695,7 @@
         <v>45463</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50752,7 +50752,7 @@
         <v>45747.38072916667</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>45541</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45541</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>45303.60203703704</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50990,7 +50990,7 @@
         <v>45558.45087962963</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45722.68009259259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>44587</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51166,7 +51166,7 @@
         <v>45327.6296412037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51223,7 +51223,7 @@
         <v>44379.5612962963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51285,7 +51285,7 @@
         <v>44603</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>45769.51464120371</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51399,7 +51399,7 @@
         <v>45728</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51456,7 +51456,7 @@
         <v>45404</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51513,7 +51513,7 @@
         <v>45590.66225694444</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45666.39425925926</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45672.65636574074</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>45679.6203125</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>45211.58746527778</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>44566.65258101852</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51855,7 +51855,7 @@
         <v>45153.56925925926</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51912,7 +51912,7 @@
         <v>45022</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45777.34825231481</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45779.42856481481</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45779.4387037037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45783.6865625</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45540.71594907407</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45205.59666666666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45622.41663194444</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45679.55258101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45555.50784722222</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52487,7 +52487,7 @@
         <v>45174</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52544,7 +52544,7 @@
         <v>44531.86046296296</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52601,7 +52601,7 @@
         <v>45240.42166666667</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45178</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45520.41766203703</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45786.65537037037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45525.51678240741</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45404.42548611111</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45188.63613425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45792.47788194445</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45475.71920138889</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45673</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45763.66766203703</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45278</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45418.5744675926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45614.40765046296</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45798.5110300926</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45799.56048611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45799.56586805556</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53585,7 +53585,7 @@
         <v>45799.57369212963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53642,7 +53642,7 @@
         <v>45800.66126157407</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53699,7 +53699,7 @@
         <v>45800.7003125</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45126.63739583334</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53818,7 +53818,7 @@
         <v>45800.57034722222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45800.58903935185</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45800.35587962963</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45800.57782407408</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54061,7 +54061,7 @@
         <v>45800.58108796296</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54123,7 +54123,7 @@
         <v>45805</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54185,7 +54185,7 @@
         <v>45805.50863425926</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54247,7 +54247,7 @@
         <v>45805.50974537037</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54309,7 +54309,7 @@
         <v>45562.34226851852</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54366,7 +54366,7 @@
         <v>45810</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54428,7 +54428,7 @@
         <v>45562.36814814815</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -575,7 +575,7 @@
         <v>45957.41951388889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45957.42287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45153</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>46058</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45404</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45440</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45938.62832175926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45677.66832175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>46049.43936342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>46045</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>46031.35736111111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45721</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44505.46231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45589.39483796297</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45295.51502314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45891.61175925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45891.61375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>45895.61741898148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45177</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45758.33842592593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>44663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45194.3671875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45926.59086805556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45926.42373842592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45938.58262731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45933.46856481482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44965</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44958</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>46043.47832175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>45617.38313657408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>45541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>46058.41995370371</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>45800.58765046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44505.57928240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44865.77954861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44829.71965277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44774.70063657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44460</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44505.57767361111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44341.60780092593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44501.61454861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44357</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>44271</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44278.63457175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44705</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44515</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44421</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44306.37357638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44432.72325231481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44760.79641203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44873.65104166666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44306.39076388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44474.65907407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44441</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44512.376875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44876</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44635.50788194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44596</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44595.69634259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44501.48219907407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44519.46857638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44446.38486111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44383.56744212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44861</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44739.83524305555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44887.58847222223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44817</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44854.60716435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44509</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44875.32665509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44523.44119212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44714</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44518.5616087963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44299</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44481.44684027778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44635.71787037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44321</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44427.35351851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44817.4978125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44799.29469907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>44829</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>45022.49149305555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>45602.69391203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45488.38681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>45615.43756944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44510.63287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45510.60306712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44846.62366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>45763.49574074074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>44656.57594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         <v>45523.56701388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>44988</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44988</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45191.66645833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44553</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45671.31266203704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44845</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>45092.3786574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45281.46988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45212</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45540.71457175926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>45240.44027777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44988</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>45540</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44764.71993055556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45191</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45693.55771990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45611.38907407408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45665.4825</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45365.42304398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>44994.71511574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45741.36755787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45701.63361111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45544.60001157408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45191.64744212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45638.78225694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44477</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45649</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45754.64091435185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45169.66825231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44988</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44988</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44744</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45771.41731481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45740.48563657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45162</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45649</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>45730.45319444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45208</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45819.42824074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45589.3999537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45818.59716435185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44336</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45566</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45649.46215277778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45884.63460648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45887.54204861111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45819.52945601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45819.53034722222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45176.71189814815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45800.53510416667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45819.36444444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45884.63819444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45884.64185185185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45567.57664351852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45819.44342592593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45260</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45615.64972222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45615.43480324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45888.6171875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>44342</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45889.40511574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45825.60623842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45825.58762731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45889.60896990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45825.58403935185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45888.44660879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45824.60252314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44813</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45226.33118055556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45596.6178125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45825.92494212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45825.92075231481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45827.35971064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45891.61541666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45825.92290509259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45476.38328703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45769.74543981482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45480.41858796297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45251.43935185186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44797.63581018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45894.748125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44316.61788194445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45896.5346412037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45833.5490162037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45832.69885416667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45832.63834490741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45899.61452546297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45899.56299768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45831.75673611111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44784.46349537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45898</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45898.56283564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45303.57997685186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44582</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45730.45170138889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45240</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44804.74767361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45548</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45834.37255787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45279.47818287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45726.67984953704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45839.62800925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45839</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44988</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45173.59473379629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45112</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45840.36614583333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45841</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45909.54861111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45910.49741898148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45911.48361111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45910.45524305556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45845.64947916667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45252.47675925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45762.55353009259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45905.50623842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45842.37846064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45540.56363425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45240.604375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>44894.66045138889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45917.63239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45849.41206018518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45302</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44452.65006944445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45916.6016087963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>45855.52385416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>45468.50820601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45919.3984837963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>45919.37730324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>45665.45438657407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45922.4216087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45863.493125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45467.40458333334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>45866.56145833333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45866.47849537037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>45925.44876157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44887</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44319.48326388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44501.58199074074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45797.6044675926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45925.36886574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45867.47538194444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44549.87050925926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45701.63517361111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45161.53357638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45121.54181712963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45868.70127314814</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45926.43328703703</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44784</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45252.42072916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45769.74990740741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45926.59225694444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45929.71905092592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45926.58954861111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45870.43672453704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45929.48452546296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45929.48710648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45926.4384375</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45873.50310185185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45390.41961805556</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45926.41520833333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45252.53457175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>45706.36291666667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>45660.41813657407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45930.55521990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>45930.2187962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>45670</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>45931.64719907408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45873.64081018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>45873.64255787037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45873.43695601852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45930.23103009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45930.60548611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45930.62028935185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45931.71005787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45246.5606712963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45932.66321759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45478.31907407408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45933.56163194445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45933.57059027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44335</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45933.42680555556</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45120.30417824074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45932.66636574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45933.43212962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45232</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45933.56688657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45662.74996527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45936</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>45936.42877314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>45883.49430555556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45883.49261574074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45740.57578703704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45936.48322916667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45936.39462962963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45883.48733796296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>45883.48945601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45883.64783564815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45937.61553240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45883.64231481482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45883.485</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>45883.63326388889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>45757.36209490741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45936.77966435185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45800.46928240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45203</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45938.92873842592</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45939.23872685185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45938</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44586</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45937.63600694444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45938.68569444444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>45938.57288194444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45532.61126157407</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45943.34716435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45211.58351851852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45330</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45887.54144675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45945.69444444445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45884.40424768518</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>44964.58362268518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45944.66112268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>45930.60534722222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45930.60773148148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45945.52273148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45070.60813657408</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45205.53430555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45636.29079861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45552.37234953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45087.9609837963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45530.57136574074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45946</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45512.42832175926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45933.4669212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45946</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45089</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45460.6910300926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>45153.58384259259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45757.42239583333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45938.68986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45938.63042824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45261</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44918</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45576.4566087963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45271.42324074074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44918</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45245</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45404.40354166667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45666.53684027777</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45957.4237037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>45957.42465277778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45957.42613425926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45755.47873842593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45415</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44994</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44994.62415509259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45414.41319444445</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45649.75841435185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44915.48208333334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45260.50872685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45343.43699074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45551.44383101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45451.93958333333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>45730.44833333333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45730.4502662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45096</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45261.34476851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45293</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45293.50021990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45971.71429398148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45971.3704050926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45204.49018518518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>45968.34590277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45327.61053240741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45972.58767361111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45971.79834490741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>45975</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44915.47952546296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>45757.37238425926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45977.45782407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45321</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45978.36744212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45268.51590277778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45979.65626157408</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45981.32533564815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45153.57439814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45983.29730324074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45984.44152777778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45984.44215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45984.44289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45453.42105324074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45981.94925925926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45981.95412037037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45595.37880787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45981.95112268518</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45985.30828703703</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45196.31804398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45986.41121527777</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45986.6946875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>46030.63916666667</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45288.41835648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>44797.63806712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>45645.48365740741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>46030.54699074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45226.34331018518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45747.38331018519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>46031.60224537037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>46030.42943287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45740.48634259259</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45701.63686342593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>46031.6131712963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45446.54258101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45992.58516203704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45992.586875</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45992.53359953704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>46035.72614583333</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>46034.57221064815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>44544.38899305555</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>46035.72274305556</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45162</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>46034.42168981482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>46034.60353009259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>45992.38607638889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>46035.67670138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44988</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45209.25542824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>46034.39454861111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45709.33609953704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>46035.65304398148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>46035.64958333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>46035.65846064815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>46035.68834490741</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>46035.69458333333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>46036.36267361111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>46037.6203587963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45159.62744212963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>46036.45912037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45177</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>46037.71626157407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>46036.53622685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44949.60355324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>46036.38805555556</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>46036.39043981482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>46037.60197916667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>46037.73811342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>46036.51623842592</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>46036.46646990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>46036.55474537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46036.56502314815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>46037.73251157408</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44273.695625</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>46041.50125</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45999.65306712963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>46038.39768518518</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45103</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>46038.40582175926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44658</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45722.67835648148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45722.68167824074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45740.65372685185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>46038.58991898148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>46043.573125</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45617.51553240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45537.61835648148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>46000.79238425926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>46043.37753472223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>46000.7947337963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>46000.7984375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45984.44184027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>46000.7875462963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>46042.95703703703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45666.54069444445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45986.96275462963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>46042.60207175926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>46043.67476851852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>46042.58122685185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>46042.95599537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44972</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>46043.583125</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>45212.40984953703</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>45999.86381944444</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>45999.86414351852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46042.67555555556</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46043.70579861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>46045.765625</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>45321.48737268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45721.54357638889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45721.54620370371</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31478,7 +31478,7 @@
         <v>45721.54834490741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>46045.8167824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31597,7 +31597,7 @@
         <v>46045.553125</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>46000.79706018518</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>46045.45677083333</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>46045.53990740741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>46045.4258449074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>46045.52701388889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>46002.3639699074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45075</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>46045.81793981481</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>46044.38246527778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45483.33774305556</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>46045.71328703704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>46048.63556712963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>46048.6746412037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>46045</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>46045</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>46045</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>46048.87952546297</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>46049.65337962963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>46048.57528935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>46048.65760416666</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>46048.5430787037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>46046.94458333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>46045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>45984.44259259259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>45182.90457175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>46046.94585648148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>46045</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44843.47506944444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>46045</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>46037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>46051.26423611111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>45327</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>46051.60847222222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>46050.70633101852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>46050.86637731481</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>46049.89538194444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>46050.29393518518</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>44810.51233796297</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>46050.68386574074</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>46050.78326388889</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>46049.89357638889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>46052.84039351852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45698.42238425926</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>46052.66981481481</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>46052.67086805555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45210.60303240741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>46052.84206018518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>46035</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45265.37725694444</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>46053.2815162037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>46055.57746527778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>46052.59991898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>46055.61150462963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>44586.71274305556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>46055.72790509259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>46052.66851851852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>46055.44311342593</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45250</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>46013.46858796296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45867</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>46055.71621527777</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>46055.48414351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>46055.50892361111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45112</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>46057.59275462963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>46055</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>46056.36020833333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>46037.94458333333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>46037.94694444445</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>46056.33554398148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>46056.33429398148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>46034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>46056.36636574074</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>46045</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>46056.4308912037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>46057.63962962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45624.51108796296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>46052</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>46056.4489699074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>45274.3437037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>46052</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>46040.77826388889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>46056.32709490741</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>46058.7768287037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>46058.35065972222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46036</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>46058.90762731482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>46058.90876157407</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>46058.9102199074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>46035</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>46038.5428125</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46038.55922453704</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45758.56565972222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>46059.55956018518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>46043</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46058.46019675926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>46058.8941087963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>46058.90265046297</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>46058.90559027778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46059.56504629629</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46043</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>46059.67913194445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>46058.89818287037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45476.4246875</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>46059.36969907407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>46058.32569444444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>46058.37984953704</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>46034.64289351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>46045</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>46058</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>45996.60818287037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>46052.47049768519</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46052.51173611111</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>46020</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46042.72135416666</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>46063.31511574074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>46062.63797453704</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44439.57211805556</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46063.35641203704</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>46063.39244212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46063.25381944444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>46052.56912037037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>46052.50662037037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>46052.56048611111</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>46063.3653587963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>46063.37041666666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>46063.37728009259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>46036.55289351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>46062.49981481482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>46063.4875462963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>46021</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>46062.34707175926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>46021</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>46021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46045</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>44812</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46063.34471064815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46021</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46063.72082175926</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>46063.25568287037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46063.30598379629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>46061.96189814815</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45191</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46020</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46048.62207175926</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>46062.5240625</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>46063</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>46058</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>46065.86118055556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>46058</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45566.66402777778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>46057</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>45376.54525462963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>46065.86258101852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>46065.8640625</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40691,7 +40691,7 @@
         <v>46065.85527777778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>46065.8584837963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>46058</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>46058</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40919,7 +40919,7 @@
         <v>45075</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40981,7 +40981,7 @@
         <v>46064.45037037037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41038,7 +41038,7 @@
         <v>46057</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41095,7 +41095,7 @@
         <v>46065.72215277778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41152,7 +41152,7 @@
         <v>46065.865625</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>46064.68269675926</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>45356.37516203704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>45562.27895833334</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>46065.75555555556</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>46056</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>45069</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         <v>46069.85539351852</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         <v>46069.39135416667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>46066.47238425926</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>46065.69568287037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>46066.48733796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41836,7 +41836,7 @@
         <v>45075</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>44805.569375</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41950,7 +41950,7 @@
         <v>46024.68712962963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42007,7 +42007,7 @@
         <v>45629.60164351852</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42064,7 +42064,7 @@
         <v>46056</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42121,7 +42121,7 @@
         <v>46066.48263888889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42178,7 +42178,7 @@
         <v>46043</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42235,7 +42235,7 @@
         <v>46066.55061342593</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>46044.4485300926</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42349,7 +42349,7 @@
         <v>46069.36844907407</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>46043</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45099.36172453704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>46069.6334375</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>44908</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45733.369375</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>46058</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>46063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42810,7 +42810,7 @@
         <v>46063</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>46063</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>45240</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42986,7 +42986,7 @@
         <v>46071.52533564815</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>46071.52795138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>46062</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>46065</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45639.36412037037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45621</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>46050</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>46069.93722222222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>46070.49</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>46069.92490740741</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>45320.39416666667</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>46070.68643518518</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>46069.92002314814</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>46069.92164351852</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>46069.93122685186</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>46071.51751157407</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>46070.50712962963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>46069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>46065</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44089,7 +44089,7 @@
         <v>46029.35219907408</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         <v>46065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44203,7 +44203,7 @@
         <v>46070.69155092593</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44260,7 +44260,7 @@
         <v>46044.56945601852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44317,7 +44317,7 @@
         <v>45455.35325231482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>46044</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>46069.92771990741</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>46070.27431712963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>44347</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>46072.36167824074</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>45583</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>46073.58239583333</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>46073.58351851852</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>46031.72472222222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>46072.40773148148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>46030</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>46071.91853009259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>46072.44634259259</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>46044</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>46071.91168981481</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>46073.5859375</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>46073.5934375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>46063</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>46073.64684027778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>46072.34410879629</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45564,7 +45564,7 @@
         <v>46072.35738425926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         <v>45374.42484953703</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>46031.3815625</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>46055</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>44854</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>46030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>46031</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45205.57335648148</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>46072.96069444445</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>46073.47606481481</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>46031.72833333333</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>46072.59813657407</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>46030</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>46031.7299537037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>46073.53269675926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>45721.54731481482</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46491,7 +46491,7 @@
         <v>46073.58091435185</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>46072.44950231481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46615,7 +46615,7 @@
         <v>46031.41513888889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
         <v>46030.64684027778</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46729,7 +46729,7 @@
         <v>46072.95856481481</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         <v>46073.40578703704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46848,7 +46848,7 @@
         <v>45188.43148148148</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>46030</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>46030</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47024,7 +47024,7 @@
         <v>45649</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47081,7 +47081,7 @@
         <v>45615.64052083333</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47138,7 +47138,7 @@
         <v>45483.33927083333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>46073.41920138889</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47252,7 +47252,7 @@
         <v>45226</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47309,7 +47309,7 @@
         <v>44818.57881944445</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47366,7 +47366,7 @@
         <v>45477.34099537037</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47423,7 +47423,7 @@
         <v>44988</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44875.62975694444</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>45112</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44796</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>45545</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47718,7 +47718,7 @@
         <v>45070.28346064815</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>45705</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>45254.65175925926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47894,7 +47894,7 @@
         <v>44956</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>45300</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>45282.39997685186</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>44272.37886574074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48122,7 +48122,7 @@
         <v>45499.41650462963</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48179,7 +48179,7 @@
         <v>45602.36033564815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48236,7 +48236,7 @@
         <v>45602.4396875</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48293,7 +48293,7 @@
         <v>44901</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48350,7 +48350,7 @@
         <v>45252</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48412,7 +48412,7 @@
         <v>45082.5808912037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48469,7 +48469,7 @@
         <v>45673</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48526,7 +48526,7 @@
         <v>45754.64225694445</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48583,7 +48583,7 @@
         <v>45667.64702546296</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48640,7 +48640,7 @@
         <v>45668.41842592593</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45187</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48779,7 +48779,7 @@
         <v>44914</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>45519.61461805556</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48893,7 +48893,7 @@
         <v>45257.56163194445</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48955,7 +48955,7 @@
         <v>45688.52892361111</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49012,7 +49012,7 @@
         <v>45094</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49074,7 +49074,7 @@
         <v>44847.49043981481</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49131,7 +49131,7 @@
         <v>45049.58680555555</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45264.61790509259</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49245,7 +49245,7 @@
         <v>45238.60041666667</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49302,7 +49302,7 @@
         <v>45709</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49359,7 +49359,7 @@
         <v>45197.63974537037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49416,7 +49416,7 @@
         <v>45217.65972222222</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49473,7 +49473,7 @@
         <v>44564.57825231482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49530,7 +49530,7 @@
         <v>44955</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49587,7 +49587,7 @@
         <v>45600.62952546297</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49644,7 +49644,7 @@
         <v>45596.42138888889</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49701,7 +49701,7 @@
         <v>45706</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49763,7 +49763,7 @@
         <v>44551.36337962963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49825,7 +49825,7 @@
         <v>45636.45076388889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49882,7 +49882,7 @@
         <v>45561.35392361111</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49939,7 +49939,7 @@
         <v>45063.45789351852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50001,7 +50001,7 @@
         <v>45602.36324074074</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50058,7 +50058,7 @@
         <v>45748.62546296296</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50115,7 +50115,7 @@
         <v>45602.68607638889</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50172,7 +50172,7 @@
         <v>45636.29861111111</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         <v>45085.64475694444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50286,7 +50286,7 @@
         <v>45756.34729166667</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50348,7 +50348,7 @@
         <v>45701.65290509259</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50405,7 +50405,7 @@
         <v>45700.63459490741</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>44379</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>44855</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50581,7 +50581,7 @@
         <v>44756.68119212963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50638,7 +50638,7 @@
         <v>45022</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50695,7 +50695,7 @@
         <v>45463</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50752,7 +50752,7 @@
         <v>45747.38072916667</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50809,7 +50809,7 @@
         <v>45541</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>45541</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>45303.60203703704</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50990,7 +50990,7 @@
         <v>45558.45087962963</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>45722.68009259259</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>44587</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51166,7 +51166,7 @@
         <v>45327.6296412037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51223,7 +51223,7 @@
         <v>44379.5612962963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51285,7 +51285,7 @@
         <v>44603</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>45769.51464120371</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51399,7 +51399,7 @@
         <v>45728</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51456,7 +51456,7 @@
         <v>45404</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51513,7 +51513,7 @@
         <v>45590.66225694444</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45666.39425925926</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45672.65636574074</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>45679.6203125</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>45211.58746527778</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>44566.65258101852</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51855,7 +51855,7 @@
         <v>45153.56925925926</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51912,7 +51912,7 @@
         <v>45022</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45777.34825231481</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45779.42856481481</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45779.4387037037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45783.6865625</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45540.71594907407</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45205.59666666666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>45622.41663194444</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         <v>45679.55258101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52430,7 +52430,7 @@
         <v>45555.50784722222</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52487,7 +52487,7 @@
         <v>45174</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52544,7 +52544,7 @@
         <v>44531.86046296296</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52601,7 +52601,7 @@
         <v>45240.42166666667</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45178</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45520.41766203703</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45786.65537037037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52839,7 +52839,7 @@
         <v>45525.51678240741</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45404.42548611111</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45188.63613425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53015,7 +53015,7 @@
         <v>45792.47788194445</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53072,7 +53072,7 @@
         <v>45475.71920138889</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45673</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         <v>45763.66766203703</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53243,7 +53243,7 @@
         <v>45278</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>45418.5744675926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>45614.40765046296</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45798.5110300926</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53471,7 +53471,7 @@
         <v>45799.56048611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53528,7 +53528,7 @@
         <v>45799.56586805556</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53585,7 +53585,7 @@
         <v>45799.57369212963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53642,7 +53642,7 @@
         <v>45800.66126157407</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53699,7 +53699,7 @@
         <v>45800.7003125</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45126.63739583334</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53818,7 +53818,7 @@
         <v>45800.57034722222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45800.58903935185</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45800.35587962963</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45800.57782407408</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54061,7 +54061,7 @@
         <v>45800.58108796296</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54123,7 +54123,7 @@
         <v>45805</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54185,7 +54185,7 @@
         <v>45805.50863425926</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54247,7 +54247,7 @@
         <v>45805.50974537037</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54309,7 +54309,7 @@
         <v>45562.34226851852</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54366,7 +54366,7 @@
         <v>45810</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54428,7 +54428,7 @@
         <v>45562.36814814815</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
